--- a/output/XP_23922063000109.xlsx
+++ b/output/XP_23922063000109.xlsx
@@ -1021,10 +1021,10 @@
         <v>44165</v>
       </c>
       <c r="B58">
-        <v>0.5770274200000001</v>
+        <v>0.5808984500000001</v>
       </c>
       <c r="C58">
-        <v>0.0250750579797594</v>
+        <v>0.02759124523900902</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_23922063000109.xlsx
+++ b/output/XP_23922063000109.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP MACRO FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,645 +383,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42460</v>
       </c>
       <c r="B2">
-        <v>-0.000841140000000018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42490</v>
       </c>
       <c r="B3">
-        <v>0.03338591999999996</v>
-      </c>
-      <c r="C3">
         <v>0.03425587398584451</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42521</v>
       </c>
       <c r="B4">
-        <v>0.04767301000000002</v>
-      </c>
-      <c r="C4">
         <v>0.01382551254423903</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
       <c r="B5">
-        <v>0.06375313000000005</v>
-      </c>
-      <c r="C5">
         <v>0.01534841486467231</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42582</v>
       </c>
       <c r="B6">
-        <v>0.08773721999999995</v>
-      </c>
-      <c r="C6">
         <v>0.02254666926338444</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42613</v>
       </c>
       <c r="B7">
-        <v>0.1027138999999999</v>
-      </c>
-      <c r="C7">
         <v>0.01376865636720592</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42643</v>
       </c>
       <c r="B8">
-        <v>0.11646252</v>
-      </c>
-      <c r="C8">
         <v>0.01246798466945975</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42674</v>
       </c>
       <c r="B9">
-        <v>0.13972429</v>
-      </c>
-      <c r="C9">
         <v>0.02083524487682764</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42704</v>
       </c>
       <c r="B10">
-        <v>0.1491944199999999</v>
-      </c>
-      <c r="C10">
         <v>0.008309141152023747</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42735</v>
       </c>
       <c r="B11">
-        <v>0.1655709000000001</v>
-      </c>
-      <c r="C11">
         <v>0.01425039985836341</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42766</v>
       </c>
       <c r="B12">
-        <v>0.2037543100000001</v>
-      </c>
-      <c r="C12">
         <v>0.03275940571268543</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42794</v>
       </c>
       <c r="B13">
-        <v>0.22304115</v>
-      </c>
-      <c r="C13">
         <v>0.01602223962130611</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42825</v>
       </c>
       <c r="B14">
-        <v>0.22523217</v>
-      </c>
-      <c r="C14">
         <v>0.001791452397165827</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42855</v>
       </c>
       <c r="B15">
-        <v>0.2219046499999999</v>
-      </c>
-      <c r="C15">
         <v>-0.002715828135658627</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42886</v>
       </c>
       <c r="B16">
-        <v>0.2030194700000001</v>
-      </c>
-      <c r="C16">
         <v>-0.01545552674670636</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42916</v>
       </c>
       <c r="B17">
-        <v>0.21435794</v>
-      </c>
-      <c r="C17">
         <v>0.009425009555331432</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42947</v>
       </c>
       <c r="B18">
-        <v>0.25623858</v>
-      </c>
-      <c r="C18">
         <v>0.03448788748398179</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42978</v>
       </c>
       <c r="B19">
-        <v>0.27927707</v>
-      </c>
-      <c r="C19">
         <v>0.01833926323135215</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43008</v>
       </c>
       <c r="B20">
-        <v>0.3201057300000001</v>
-      </c>
-      <c r="C20">
         <v>0.03191541610294024</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43039</v>
       </c>
       <c r="B21">
-        <v>0.3270108199999999</v>
-      </c>
-      <c r="C21">
         <v>0.005230709815947643</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43069</v>
       </c>
       <c r="B22">
-        <v>0.32026142</v>
-      </c>
-      <c r="C22">
         <v>-0.00508616802385975</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43100</v>
       </c>
       <c r="B23">
-        <v>0.3375974799999999</v>
-      </c>
-      <c r="C23">
         <v>0.01313077829692233</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43131</v>
       </c>
       <c r="B24">
-        <v>0.36232503</v>
-      </c>
-      <c r="C24">
         <v>0.01848654050992993</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43159</v>
       </c>
       <c r="B25">
-        <v>0.3750666499999999</v>
-      </c>
-      <c r="C25">
         <v>0.009352848783817702</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43190</v>
       </c>
       <c r="B26">
-        <v>0.4080376699999999</v>
-      </c>
-      <c r="C26">
         <v>0.02397776136887608</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43220</v>
       </c>
       <c r="B27">
-        <v>0.4178635100000001</v>
-      </c>
-      <c r="C27">
         <v>0.006978392843708603</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43251</v>
       </c>
       <c r="B28">
-        <v>0.3789805399999999</v>
-      </c>
-      <c r="C28">
         <v>-0.0274236340280738</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43281</v>
       </c>
       <c r="B29">
-        <v>0.40538578</v>
-      </c>
-      <c r="C29">
         <v>0.01914837753983112</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43312</v>
       </c>
       <c r="B30">
-        <v>0.40123065</v>
-      </c>
-      <c r="C30">
         <v>-0.002956576094003127</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43343</v>
       </c>
       <c r="B31">
-        <v>0.4150326799999999</v>
-      </c>
-      <c r="C31">
         <v>0.009849934413010297</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43373</v>
       </c>
       <c r="B32">
-        <v>0.4176418900000001</v>
-      </c>
-      <c r="C32">
         <v>0.001843922078181404</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43404</v>
       </c>
       <c r="B33">
-        <v>0.42928275</v>
-      </c>
-      <c r="C33">
         <v>0.008211424960079317</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43434</v>
       </c>
       <c r="B34">
-        <v>0.4115152</v>
-      </c>
-      <c r="C34">
         <v>-0.01243109524689923</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43465</v>
       </c>
       <c r="B35">
-        <v>0.41429461</v>
-      </c>
-      <c r="C35">
         <v>0.001969096755033206</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43496</v>
       </c>
       <c r="B36">
-        <v>0.4647890100000001</v>
-      </c>
-      <c r="C36">
         <v>0.03570288654356113</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43524</v>
       </c>
       <c r="B37">
-        <v>0.45685631</v>
-      </c>
-      <c r="C37">
         <v>-0.005415592242871914</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43555</v>
       </c>
       <c r="B38">
-        <v>0.4575859799999999</v>
-      </c>
-      <c r="C38">
         <v>0.0005008524141958404</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43585</v>
       </c>
       <c r="B39">
-        <v>0.46647054</v>
-      </c>
-      <c r="C39">
         <v>0.00609539342577925</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43616</v>
       </c>
       <c r="B40">
-        <v>0.4525056000000001</v>
-      </c>
-      <c r="C40">
         <v>-0.009522823417918769</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43646</v>
       </c>
       <c r="B41">
-        <v>0.47743388</v>
-      </c>
-      <c r="C41">
         <v>0.01716226085462247</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43677</v>
       </c>
       <c r="B42">
-        <v>0.4899704499999999</v>
-      </c>
-      <c r="C42">
         <v>0.008485367886649442</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43708</v>
       </c>
       <c r="B43">
-        <v>0.49090711</v>
-      </c>
-      <c r="C43">
         <v>0.0006286433398730029</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43738</v>
       </c>
       <c r="B44">
-        <v>0.5170824199999999</v>
-      </c>
-      <c r="C44">
         <v>0.01755663369262495</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43769</v>
       </c>
       <c r="B45">
-        <v>0.5458406099999999</v>
-      </c>
-      <c r="C45">
         <v>0.0189562476111218</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43799</v>
       </c>
       <c r="B46">
-        <v>0.52317386</v>
-      </c>
-      <c r="C46">
         <v>-0.01466305766155285</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43830</v>
       </c>
       <c r="B47">
-        <v>0.5518042700000001</v>
-      </c>
-      <c r="C47">
         <v>0.01879654762457661</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43861</v>
       </c>
       <c r="B48">
-        <v>0.54961737</v>
-      </c>
-      <c r="C48">
         <v>-0.001409262780286191</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43890</v>
       </c>
       <c r="B49">
-        <v>0.52411494</v>
-      </c>
-      <c r="C49">
         <v>-0.01645724324837683</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43921</v>
       </c>
       <c r="B50">
-        <v>0.37811562</v>
-      </c>
-      <c r="C50">
         <v>-0.09579285404813365</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43951</v>
       </c>
       <c r="B51">
-        <v>0.4029866600000001</v>
-      </c>
-      <c r="C51">
         <v>0.01804713598703711</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43982</v>
       </c>
       <c r="B52">
-        <v>0.47600471</v>
-      </c>
-      <c r="C52">
         <v>0.0520447215086135</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44012</v>
       </c>
       <c r="B53">
-        <v>0.5217569900000001</v>
-      </c>
-      <c r="C53">
         <v>0.03099738076039071</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44043</v>
       </c>
       <c r="B54">
-        <v>0.5711447999999999</v>
-      </c>
-      <c r="C54">
         <v>0.03245446567654664</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44074</v>
       </c>
       <c r="B55">
-        <v>0.56700544</v>
-      </c>
-      <c r="C55">
         <v>-0.002634613945194597</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44104</v>
       </c>
       <c r="B56">
-        <v>0.54130122</v>
-      </c>
-      <c r="C56">
         <v>-0.01640340189246559</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44135</v>
       </c>
       <c r="B57">
-        <v>0.53845068</v>
-      </c>
-      <c r="C57">
         <v>-0.001849437321537972</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>44165</v>
       </c>
       <c r="B58">
-        <v>0.5808984500000001</v>
-      </c>
-      <c r="C58">
-        <v>0.02759124523900902</v>
+        <v>0.01390587964769852</v>
       </c>
     </row>
   </sheetData>
